--- a/resources/data-imports/Weapons/daggers.xlsx
+++ b/resources/data-imports/Weapons/daggers.xlsx
@@ -898,11 +898,11 @@
   </sheetPr>
   <dimension ref="A1:BT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI2" activeCellId="0" sqref="AI2:AI60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="25.74"/>
@@ -1304,7 +1304,7 @@
         <v>75</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>75</v>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>75</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>75</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>75</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>75</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>75</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>75</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>75</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>75</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>75</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>75</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>75</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>75</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>75</v>
       </c>
       <c r="AI18" s="1" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>75</v>
       </c>
       <c r="AI19" s="1" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>75</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>75</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>75</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>75</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.088</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>75</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>75</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>75</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>75</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="1" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>75</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="1" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>75</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="1" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>75</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="1" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>75</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="1" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>75</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="1" t="n">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>75</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="1" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>75</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="1" t="n">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>75</v>
       </c>
       <c r="AI35" s="1" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="1" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>75</v>
       </c>
       <c r="AI36" s="1" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="1" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>75</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="1" t="n">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>75</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="1" t="n">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>75</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="1" t="n">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>75</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="1" t="n">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>75</v>
       </c>
       <c r="AI41" s="1" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="1" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>75</v>
       </c>
       <c r="AI42" s="1" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="1" t="n">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>75</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="1" t="n">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>75</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="1" t="n">
         <v>0</v>
@@ -5771,7 +5771,7 @@
         <v>75</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="1" t="n">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>75</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="1" t="n">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>75</v>
       </c>
       <c r="AI47" s="1" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="1" t="n">
         <v>0</v>
@@ -6092,7 +6092,7 @@
         <v>75</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="1" t="n">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>75</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="1" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>75</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="1" t="n">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>75</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="1" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>75</v>
       </c>
       <c r="AI52" s="1" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="1" t="n">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         <v>75</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="1" t="n">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>75</v>
       </c>
       <c r="AI54" s="1" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="1" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
         <v>75</v>
       </c>
       <c r="AI55" s="1" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="1" t="n">
         <v>0</v>
@@ -6957,7 +6957,7 @@
         <v>75</v>
       </c>
       <c r="AI56" s="1" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="1" t="n">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>75</v>
       </c>
       <c r="AI57" s="1" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="1" t="n">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>75</v>
       </c>
       <c r="AI58" s="1" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="1" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>75</v>
       </c>
       <c r="AI59" s="1" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="1" t="n">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>75</v>
       </c>
       <c r="AI60" s="1" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="1" t="n">
         <v>0</v>
